--- a/similarities/split_global/harmonic_similarity_timestamps_233.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_233.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,610 +484,648 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_59</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>isophonics_294</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['C/5', 'G', 'C', 'G/3']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G#:maj', 'D#:maj', 'G#:maj', 'D#:maj']]</t>
+          <t>['G', 'C', 'G/3']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:27.476822', '0:00:36.159841')]</t>
+          <t>('0:00:18.320000', '0:00:25.820000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:02:11.460000', '0:02:13.760000')]</t>
+          <t>('0:00:22.020589', '0:00:24.598004')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-59#t=27.476822']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=18.32</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=131.46']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-294#t=22.020589</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_36</t>
+          <t>isophonics_269</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>schubert-winterreise_143</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['A:min7', 'D:7', 'G']]</t>
+          <t>['A:min', 'E', 'A:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['G:min7/A#', 'C:7', 'F:maj']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:41.520000', '0:00:46.940000')]</t>
+          <t>('0:00:12.824000', '0:00:20.865000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:11.100000', '0:01:18.700000')]</t>
+          <t>('0:00:13.420000', '0:00:19.500000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-36#t=41.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-269#t=12.824</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=71.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=13.42</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_19</t>
+          <t>schubert-winterreise_18</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_59</t>
+          <t>jaah_52</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C:min7', 'F:7', 'Bb:7', 'Bb:min7', 'Eb:7']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj', 'F:7', 'A#:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D:min7', 'G:7', 'C:7', 'C:min7', 'F:7']]</t>
+          <t>['F', 'C:7', 'F', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:25.570000', '0:00:28.890000')]</t>
+          <t>('0:01:14.400000', '0:01:32.280000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:16.920000', '0:00:22.360000')]</t>
+          <t>('0:00:22.170000', '0:00:32.220000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-19#t=25.57']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=74.4</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-59#t=16.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=22.17</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_194</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>isophonics_53</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'A'], ['D', 'G', 'D']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'A:maj'], ['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['A/3', 'E:7', 'A']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:59.205240', '0:01:06.101566'), ('0:02:24.085784', '0:02:29.240614')]</t>
+          <t>('0:01:08.640000', '0:01:17.380000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:01.020000', '0:01:08.700000'), ('0:00:57.480000', '0:01:04.580000')]</t>
+          <t>('0:00:58.557000', '0:01:02.834000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-194#t=59.20524', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-194#t=144.085784']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=68.64</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=61.02', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=57.48']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=58.557</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>schubert-winterreise_94</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_123</t>
+          <t>isophonics_294</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7', 'A:min']]</t>
+          <t>['D#:maj/A#', 'D#:min/A#', 'A#:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7/F', 'F:min']]</t>
+          <t>['C', 'C:min', 'G/3']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:17.120000', '0:00:24.900000')]</t>
+          <t>('0:00:08.060000', '0:00:15.600000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:14.920000', '0:00:20.760000')]</t>
+          <t>('0:00:15.565442', '0:00:19.466394')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-175#t=17.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=8.06</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-123#t=14.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-294#t=15.565442</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
+          <t>schubert-winterreise_98</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['C#:hdim7/B', 'B:min', 'C#:hdim7/B', 'B:min']]</t>
+          <t>['G:min', 'G#:maj/C', 'G:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#']]</t>
+          <t>['F:min', 'F#/A#', 'F:min/C']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:06.840000', '0:00:26.340000')]</t>
+          <t>('0:00:42.580000', '0:00:45.200000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:53', '0:01:02')]</t>
+          <t>('0:02:56.400000', '0:02:58.860000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-20#t=6.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=42.58</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=53.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-98#t=176.4</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>jaah_54</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>schubert-winterreise_95</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:36.660000', '0:00:43.940000')]</t>
+          <t>('0:00:22.370000', '0:00:40.370000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:14.500000', '0:01:20.420000')]</t>
+          <t>('0:03:46.620000', '0:03:52.800000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-45#t=36.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-54#t=22.37</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=74.5']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=226.62</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_223</t>
+          <t>isophonics_164</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>schubert-winterreise_89</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A']]</t>
+          <t>['D:7', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['A:7', 'D:maj', 'G:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:00.440395', '0:00:07.142059')]</t>
+          <t>('0:01:16.958000', '0:01:25.346000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:41.080000', '0:00:43.260000')]</t>
+          <t>('0:00:13.260000', '0:00:17.260000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-223#t=0.440395']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-164#t=76.958</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=41.08']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=13.26</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_167</t>
+          <t>schubert-winterreise_215</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_68</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:00.580000', '0:00:10.180000')]</t>
+          <t>('0:00:15.780000', '0:00:21.280000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:08.740000', '0:00:24.260000')]</t>
+          <t>('0:00:40.380000', '0:00:42.280000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=0.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-215#t=15.78</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-68#t=8.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=40.38</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_47</t>
+          <t>schubert-winterreise_79</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_151</t>
+          <t>isophonics_255</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'D']]</t>
+          <t>['A:min', 'D:min', 'A:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
+          <t>['D:min', 'G:min/5', 'D:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:01.302038', '0:00:06.740158')]</t>
+          <t>('0:00:13.660000', '0:00:24.820000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:57.540000', '0:02:02.700000')]</t>
+          <t>('0:00:27.789047', '0:00:31.109501')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-47#t=1.302038']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-79#t=13.66</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-151#t=117.54']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-255#t=27.789047</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_198</t>
+          <t>schubert-winterreise_85</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:maj', 'A:min']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D:min', 'A', 'D:min']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:13.500000', '0:00:21.900000')]</t>
+          <t>('0:00:01.540000', '0:00:06.680000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:18.965464', '0:00:23.342426')]</t>
+          <t>('0:00:01.260000', '0:00:05.440000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=13.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=1.54</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-198#t=18.965464']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=1.26</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
+          <t>isophonics_111</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_183</t>
+          <t>jaah_5</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['F', 'F:min', 'C']]</t>
+          <t>['A:7', 'E:7', 'A:7']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G', 'G:min', 'D']]</t>
+          <t>['Bb:7', 'F:7', 'Bb:7']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:38.588000', '0:00:43.202000')]</t>
+          <t>('0:00:11.993129', '0:00:29.175895')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:02.879563', '0:01:11.679925')]</t>
+          <t>('0:00:22.230000', '0:00:25.410000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-21#t=38.588']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-111#t=11.993129</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-183#t=62.879563']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-5#t=22.23</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_216</t>
+          <t>schubert-winterreise_92</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E']]</t>
+          <t>['G:min', 'D:7', 'G:min', 'G:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'A:7', 'D']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:00.100000', '0:01:05.020000')]</t>
+          <t>('0:00:47.760000', '0:00:59.620000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:02.932448', '0:01:12.777709')]</t>
+          <t>('0:00:00.360000', '0:00:03.020000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=60.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=47.76</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-216#t=62.932448']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-92#t=0.36</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1096,98 +1134,112 @@
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_92</t>
+          <t>schubert-winterreise_188</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_22</t>
+          <t>schubert-winterreise_104</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['F#:7', 'B:7', 'E:7']]</t>
+          <t>['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:7', 'F:7']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:21.612539', '0:00:26.651269')]</t>
+          <t>('0:01:02.100000', '0:01:11.780000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:21.840000', '0:00:27.650000')]</t>
+          <t>('0:00:00.240000', '0:00:09.280000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-92#t=21.612539']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=62.1</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-22#t=21.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=0.24</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_31</t>
+          <t>schubert-winterreise_185</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_21</t>
+          <t>schubert-winterreise_118</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:7', 'C']]</t>
+          <t>['D:maj/F#', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb:7', 'Ab']]</t>
+          <t>['C:maj/G', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:58.670000', '0:01:04.130000')]</t>
+          <t>('0:00:39.800000', '0:00:45.400000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:14.400000', '0:00:16.430000')]</t>
+          <t>('0:00:31.740000', '0:00:33.880000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=58.67']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=39.8</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=14.4']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-118#t=31.74</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
